--- a/fichiers_xls/test_maptwocolumns.xlsx
+++ b/fichiers_xls/test_maptwocolumns.xlsx
@@ -350,8 +350,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="2" min="943" max="1012"/>
-    <col width="11.53" customWidth="1" style="2" min="16373" max="16384"/>
+    <col width="11.52" customWidth="1" style="2" min="941" max="1010"/>
+    <col width="11.53" customWidth="1" style="2" min="16371" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="3">

--- a/fichiers_xls/test_maptwocolumns.xlsx
+++ b/fichiers_xls/test_maptwocolumns.xlsx
@@ -350,8 +350,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="2" min="940" max="1009"/>
-    <col width="11.53" customWidth="1" style="2" min="16370" max="16384"/>
+    <col width="11.52" customWidth="1" style="2" min="933" max="1002"/>
+    <col width="11.53" customWidth="1" style="2" min="16363" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="3">

--- a/fichiers_xls/test_maptwocolumns.xlsx
+++ b/fichiers_xls/test_maptwocolumns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="expected" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
